--- a/input_test/test_input_genera_part2.xlsx
+++ b/input_test/test_input_genera_part2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/telatina/Dropbox/100K_taxa/the-great-automatic-nomenclature/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/telatina/Dropbox/100K_taxa/gan/input_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5BA7D5-6E56-DD41-ACBF-EC07AB11D1FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAAD8F3-DADC-9242-A5B3-5CF885458CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Gender</t>
   </si>
@@ -166,6 +166,7 @@
       <b/>
       <sz val="18"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,17 +174,20 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="18"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -829,7 +833,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,9 +1012,7 @@
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
